--- a/11-CollaborationList/2025-11-Refresh/00-RefreshLog.xlsx
+++ b/11-CollaborationList/2025-11-Refresh/00-RefreshLog.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11102"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11109"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ken.long/Library/CloudStorage/Box-Box/CubMac-Box/KL-GIT/CCAP/02-LhARA/00-Collaboration-lists/11-CollaborationList/2025-11-Refresh/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EEC0DF4-41F5-F141-A9B2-3045E9B14795}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B04549D9-55F3-6748-BED5-EB17A70C714D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{9AD4C775-BB02-1F4A-9451-959360E31C15}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{9AD4C775-BB02-1F4A-9451-959360E31C15}"/>
   </bookViews>
   <sheets>
     <sheet name="lisst" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="75">
   <si>
     <t>ASU.xlsx</t>
   </si>
@@ -255,6 +255,9 @@
   </si>
   <si>
     <t>Cntr</t>
+  </si>
+  <si>
+    <t>Update from Thongchai, so, done.</t>
   </si>
 </sst>
 </file>
@@ -820,8 +823,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7E76B90B-1F1C-C048-9567-529E0CFCD19F}" name="Table1" displayName="Table1" ref="A1:H65" totalsRowShown="0">
-  <autoFilter ref="A1:H65" xr:uid="{7E76B90B-1F1C-C048-9567-529E0CFCD19F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7E76B90B-1F1C-C048-9567-529E0CFCD19F}" name="Table1" displayName="Table1" ref="A1:H68" totalsRowShown="0">
+  <autoFilter ref="A1:H68" xr:uid="{7E76B90B-1F1C-C048-9567-529E0CFCD19F}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{1B122CB6-63D6-7345-875C-B51685430DD3}" name="Institute"/>
     <tableColumn id="2" xr3:uid="{848FCA04-184B-824E-859C-4BA3DD5B6678}" name="Spreadsheet"/>
@@ -1153,10 +1156,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31D84185-4893-984F-81CD-365C50C740D1}">
-  <dimension ref="A1:I67"/>
+  <dimension ref="A1:I70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="G61" sqref="G61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
@@ -1867,7 +1870,7 @@
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C59" s="1"/>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:8" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>72</v>
       </c>
@@ -1880,49 +1883,67 @@
       <c r="D60" t="s">
         <v>36</v>
       </c>
+      <c r="E60" s="1">
+        <v>45973</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>74</v>
+      </c>
       <c r="G60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H60">
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C61" s="1"/>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E61">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" collapsed="1" x14ac:dyDescent="0.2">
       <c r="C62" s="1"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B63" t="s">
+      <c r="C63" s="1"/>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C64" s="1"/>
+    </row>
+    <row r="65" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C65" s="1"/>
+    </row>
+    <row r="66" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B66" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B64" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B65" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="67" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B67" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="68" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B68" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="70" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B70" t="s">
         <v>47</v>
       </c>
-      <c r="G67">
+      <c r="G70">
         <f>SUM(Table1[Member list complete?])</f>
-        <v>5</v>
-      </c>
-      <c r="H67">
+        <v>6</v>
+      </c>
+      <c r="H70">
         <f>SUM(Table1[Cntr])</f>
         <v>27</v>
       </c>
-      <c r="I67" s="5">
-        <f>G67/H67</f>
-        <v>0.18518518518518517</v>
+      <c r="I70" s="5">
+        <f>G70/H70</f>
+        <v>0.22222222222222221</v>
       </c>
     </row>
   </sheetData>

--- a/11-CollaborationList/2025-11-Refresh/00-RefreshLog.xlsx
+++ b/11-CollaborationList/2025-11-Refresh/00-RefreshLog.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ken.long/Library/CloudStorage/Box-Box/CubMac-Box/KL-GIT/CCAP/02-LhARA/00-Collaboration-lists/11-CollaborationList/2025-11-Refresh/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/longkr/Library/CloudStorage/Box-Box/CubMac-Box/KL-GIT/CCAP/02-LhARA/00-Collaboration-lists/11-CollaborationList/2025-11-Refresh/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B04549D9-55F3-6748-BED5-EB17A70C714D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{046D63E1-063A-8D40-99B7-7ED47EA959D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{9AD4C775-BB02-1F4A-9451-959360E31C15}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="28800" xr2:uid="{9AD4C775-BB02-1F4A-9451-959360E31C15}"/>
   </bookViews>
   <sheets>
     <sheet name="lisst" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="84">
   <si>
     <t>ASU.xlsx</t>
   </si>
@@ -258,6 +258,33 @@
   </si>
   <si>
     <t>Update from Thongchai, so, done.</t>
+  </si>
+  <si>
+    <t>OK from Phil, querie about Amato</t>
+  </si>
+  <si>
+    <t>OK from Manjit.</t>
+  </si>
+  <si>
+    <t>Thomason, cuts ISIS list.</t>
+  </si>
+  <si>
+    <t>Hywel completes DL list</t>
+  </si>
+  <si>
+    <t>Stew: remove Karen, perhaps add Mike Taylor</t>
+  </si>
+  <si>
+    <t>Mehdi Tarisien</t>
+  </si>
+  <si>
+    <t>Bordeaux</t>
+  </si>
+  <si>
+    <t>Ulrich Schramm</t>
+  </si>
+  <si>
+    <t>Jorg and Katia</t>
   </si>
 </sst>
 </file>
@@ -823,8 +850,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7E76B90B-1F1C-C048-9567-529E0CFCD19F}" name="Table1" displayName="Table1" ref="A1:H68" totalsRowShown="0">
-  <autoFilter ref="A1:H68" xr:uid="{7E76B90B-1F1C-C048-9567-529E0CFCD19F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7E76B90B-1F1C-C048-9567-529E0CFCD19F}" name="Table1" displayName="Table1" ref="A1:H83" totalsRowShown="0">
+  <autoFilter ref="A1:H83" xr:uid="{7E76B90B-1F1C-C048-9567-529E0CFCD19F}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{1B122CB6-63D6-7345-875C-B51685430DD3}" name="Institute"/>
     <tableColumn id="2" xr3:uid="{848FCA04-184B-824E-859C-4BA3DD5B6678}" name="Spreadsheet"/>
@@ -1156,10 +1183,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31D84185-4893-984F-81CD-365C50C740D1}">
-  <dimension ref="A1:I70"/>
+  <dimension ref="A1:I85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="G61" sqref="G61"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D80" sqref="D80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
@@ -1515,7 +1542,7 @@
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C29" s="1"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>65</v>
       </c>
@@ -1528,165 +1555,169 @@
       <c r="D30" t="s">
         <v>36</v>
       </c>
+      <c r="E30" s="1">
+        <v>45978</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>79</v>
+      </c>
       <c r="G30">
+        <v>1</v>
+      </c>
+      <c r="H30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="C31" s="1"/>
+      <c r="E31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="C32" s="1"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>66</v>
+      </c>
+      <c r="B33" t="s">
+        <v>14</v>
+      </c>
+      <c r="C33" s="1">
+        <v>45972</v>
+      </c>
+      <c r="D33" t="s">
+        <v>36</v>
+      </c>
+      <c r="G33">
         <v>0</v>
       </c>
-      <c r="H30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C31" s="1"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>66</v>
-      </c>
-      <c r="B32" t="s">
-        <v>14</v>
-      </c>
-      <c r="C32" s="1">
-        <v>45972</v>
-      </c>
-      <c r="D32" t="s">
-        <v>36</v>
-      </c>
-      <c r="G32">
+      <c r="H33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C34" s="1"/>
+    </row>
+    <row r="35" spans="1:8" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>67</v>
+      </c>
+      <c r="B35" t="s">
+        <v>15</v>
+      </c>
+      <c r="C35" s="1">
+        <v>45972</v>
+      </c>
+      <c r="D35" t="s">
+        <v>36</v>
+      </c>
+      <c r="E35" s="1">
+        <v>45973</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="G35">
         <v>0</v>
       </c>
-      <c r="H32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C33" s="1"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>67</v>
-      </c>
-      <c r="B34" t="s">
-        <v>15</v>
-      </c>
-      <c r="C34" s="1">
-        <v>45972</v>
-      </c>
-      <c r="D34" t="s">
-        <v>36</v>
-      </c>
-      <c r="G34">
-        <v>0</v>
-      </c>
-      <c r="H34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C35" s="1"/>
+      <c r="H35">
+        <v>1</v>
+      </c>
     </row>
     <row r="36" spans="1:8" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
+      <c r="C36" s="1"/>
+      <c r="E36" s="1">
+        <v>45975</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="C37" s="1"/>
+    </row>
+    <row r="38" spans="1:8" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
         <v>56</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B38" t="s">
         <v>16</v>
       </c>
-      <c r="C36" s="1">
-        <v>45972</v>
-      </c>
-      <c r="D36" t="s">
-        <v>36</v>
-      </c>
-      <c r="E36" s="1">
-        <v>45972</v>
-      </c>
-      <c r="F36" s="2" t="s">
+      <c r="C38" s="1">
+        <v>45972</v>
+      </c>
+      <c r="D38" t="s">
+        <v>36</v>
+      </c>
+      <c r="E38" s="1">
+        <v>45972</v>
+      </c>
+      <c r="F38" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="G36">
-        <v>1</v>
-      </c>
-      <c r="H36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C37" s="1"/>
-      <c r="E37" s="1">
+      <c r="G38">
+        <v>1</v>
+      </c>
+      <c r="H38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="C39" s="1"/>
+      <c r="E39" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="38" spans="1:8" collapsed="1" x14ac:dyDescent="0.2">
-      <c r="C38" s="1"/>
-      <c r="E38" s="1"/>
-    </row>
-    <row r="39" spans="1:8" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
+    <row r="40" spans="1:8" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="C40" s="1"/>
+      <c r="E40" s="1"/>
+    </row>
+    <row r="41" spans="1:8" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
         <v>50</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B41" t="s">
         <v>17</v>
       </c>
-      <c r="C39" s="1">
-        <v>45972</v>
-      </c>
-      <c r="D39" t="s">
-        <v>36</v>
-      </c>
-      <c r="E39" s="1">
-        <v>45972</v>
-      </c>
-      <c r="F39" s="2" t="s">
+      <c r="C41" s="1">
+        <v>45972</v>
+      </c>
+      <c r="D41" t="s">
+        <v>36</v>
+      </c>
+      <c r="E41" s="1">
+        <v>45972</v>
+      </c>
+      <c r="F41" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="G39">
-        <v>1</v>
-      </c>
-      <c r="H39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C40" s="1"/>
-      <c r="E40">
+      <c r="G41">
+        <v>1</v>
+      </c>
+      <c r="H41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="C42" s="1"/>
+      <c r="E42">
         <v>11</v>
       </c>
     </row>
-    <row r="41" spans="1:8" collapsed="1" x14ac:dyDescent="0.2">
-      <c r="C41" s="1"/>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>68</v>
-      </c>
-      <c r="B42" t="s">
-        <v>18</v>
-      </c>
-      <c r="C42" s="1">
-        <v>45972</v>
-      </c>
-      <c r="D42" t="s">
-        <v>36</v>
-      </c>
-      <c r="G42">
-        <v>0</v>
-      </c>
-      <c r="H42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8" collapsed="1" x14ac:dyDescent="0.2">
       <c r="C43" s="1"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>43</v>
+        <v>68</v>
       </c>
       <c r="B44" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C44" s="1">
-        <v>45971</v>
+        <v>45972</v>
       </c>
       <c r="D44" t="s">
         <v>36</v>
@@ -1701,24 +1732,18 @@
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C45" s="1"/>
     </row>
-    <row r="46" spans="1:8" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="B46" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C46" s="1">
-        <v>45972</v>
+        <v>45971</v>
       </c>
       <c r="D46" t="s">
         <v>36</v>
-      </c>
-      <c r="E46" s="1">
-        <v>45972</v>
-      </c>
-      <c r="F46" s="2" t="s">
-        <v>59</v>
       </c>
       <c r="G46">
         <v>0</v>
@@ -1727,223 +1752,291 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C47" s="1"/>
-      <c r="E47" s="1">
+    </row>
+    <row r="48" spans="1:8" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>60</v>
+      </c>
+      <c r="B48" t="s">
+        <v>20</v>
+      </c>
+      <c r="C48" s="1">
+        <v>45972</v>
+      </c>
+      <c r="D48" t="s">
+        <v>36</v>
+      </c>
+      <c r="E48" s="1">
+        <v>45972</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G48">
+        <v>1</v>
+      </c>
+      <c r="H48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="C49" s="1"/>
+      <c r="E49" s="1">
+        <v>45975</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="C50" s="1"/>
+      <c r="E50" s="1">
+        <v>45978</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="C51" s="1"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>69</v>
+      </c>
+      <c r="B52" t="s">
+        <v>21</v>
+      </c>
+      <c r="C52" s="1">
+        <v>45972</v>
+      </c>
+      <c r="D52" t="s">
+        <v>36</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C53" s="1"/>
+    </row>
+    <row r="54" spans="1:8" ht="34" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C54" s="4">
+        <v>45972</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E54" s="4">
+        <v>45972</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G54" s="3">
+        <v>1</v>
+      </c>
+      <c r="H54" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="3"/>
+      <c r="B55" s="3"/>
+      <c r="C55" s="4"/>
+      <c r="D55" s="3"/>
+      <c r="E55" s="4">
         <v>11</v>
       </c>
-    </row>
-    <row r="48" spans="1:8" collapsed="1" x14ac:dyDescent="0.2">
-      <c r="C48" s="1"/>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>69</v>
-      </c>
-      <c r="B49" t="s">
-        <v>21</v>
-      </c>
-      <c r="C49" s="1">
-        <v>45972</v>
-      </c>
-      <c r="D49" t="s">
-        <v>36</v>
-      </c>
-      <c r="G49">
+      <c r="G55" s="3"/>
+    </row>
+    <row r="56" spans="1:8" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="3"/>
+      <c r="B56" s="3"/>
+      <c r="C56" s="4"/>
+      <c r="D56" s="3"/>
+      <c r="E56" s="4"/>
+      <c r="G56" s="3"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>71</v>
+      </c>
+      <c r="B57" t="s">
+        <v>23</v>
+      </c>
+      <c r="C57" s="1">
+        <v>45972</v>
+      </c>
+      <c r="D57" t="s">
+        <v>36</v>
+      </c>
+      <c r="G57">
         <v>0</v>
       </c>
-      <c r="H49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C50" s="1"/>
-    </row>
-    <row r="51" spans="1:8" ht="34" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C51" s="4">
-        <v>45972</v>
-      </c>
-      <c r="D51" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E51" s="4">
-        <v>45972</v>
-      </c>
-      <c r="F51" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="G51" s="3">
-        <v>1</v>
-      </c>
-      <c r="H51" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="3"/>
-      <c r="B52" s="3"/>
-      <c r="C52" s="4"/>
-      <c r="D52" s="3"/>
-      <c r="E52" s="4">
+      <c r="H57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C58" s="1"/>
+    </row>
+    <row r="59" spans="1:8" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>49</v>
+      </c>
+      <c r="B59" t="s">
+        <v>24</v>
+      </c>
+      <c r="C59" s="1">
+        <v>45972</v>
+      </c>
+      <c r="D59" t="s">
+        <v>36</v>
+      </c>
+      <c r="E59" s="1">
+        <v>45972</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G59">
+        <v>0</v>
+      </c>
+      <c r="H59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="C60" s="1"/>
+      <c r="E60" s="1">
         <v>11</v>
       </c>
-      <c r="G52" s="3"/>
-    </row>
-    <row r="53" spans="1:8" collapsed="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="3"/>
-      <c r="B53" s="3"/>
-      <c r="C53" s="4"/>
-      <c r="D53" s="3"/>
-      <c r="E53" s="4"/>
-      <c r="G53" s="3"/>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
-        <v>71</v>
-      </c>
-      <c r="B54" t="s">
-        <v>23</v>
-      </c>
-      <c r="C54" s="1">
-        <v>45972</v>
-      </c>
-      <c r="D54" t="s">
-        <v>36</v>
-      </c>
-      <c r="G54">
+    </row>
+    <row r="61" spans="1:8" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="C61" s="1"/>
+      <c r="G61">
         <v>0</v>
       </c>
-      <c r="H54">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C55" s="1"/>
-    </row>
-    <row r="56" spans="1:8" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
-        <v>49</v>
-      </c>
-      <c r="B56" t="s">
-        <v>24</v>
-      </c>
-      <c r="C56" s="1">
-        <v>45972</v>
-      </c>
-      <c r="D56" t="s">
-        <v>36</v>
-      </c>
-      <c r="E56" s="1">
-        <v>45972</v>
-      </c>
-      <c r="F56" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="G56">
-        <v>0</v>
-      </c>
-      <c r="H56">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C57" s="1"/>
-      <c r="E57" s="1">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" collapsed="1" x14ac:dyDescent="0.2">
-      <c r="C58" s="1"/>
-      <c r="G58">
-        <v>0</v>
-      </c>
-      <c r="H58">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C59" s="1"/>
-    </row>
-    <row r="60" spans="1:8" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
+      <c r="H61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C62" s="1"/>
+    </row>
+    <row r="63" spans="1:8" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
         <v>72</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B63" t="s">
         <v>25</v>
       </c>
-      <c r="C60" s="1">
-        <v>45972</v>
-      </c>
-      <c r="D60" t="s">
-        <v>36</v>
-      </c>
-      <c r="E60" s="1">
+      <c r="C63" s="1">
+        <v>45972</v>
+      </c>
+      <c r="D63" t="s">
+        <v>36</v>
+      </c>
+      <c r="E63" s="1">
         <v>45973</v>
       </c>
-      <c r="F60" s="2" t="s">
+      <c r="F63" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="G60">
-        <v>1</v>
-      </c>
-      <c r="H60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C61" s="1"/>
-      <c r="E61">
+      <c r="G63">
+        <v>1</v>
+      </c>
+      <c r="H63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="C64" s="1"/>
+      <c r="E64">
         <v>12</v>
       </c>
     </row>
-    <row r="62" spans="1:8" collapsed="1" x14ac:dyDescent="0.2">
-      <c r="C62" s="1"/>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C63" s="1"/>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C64" s="1"/>
-    </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:5" collapsed="1" x14ac:dyDescent="0.2">
       <c r="C65" s="1"/>
     </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B66" t="s">
+    <row r="66" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C66" s="1"/>
+    </row>
+    <row r="67" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C67" s="1"/>
+    </row>
+    <row r="68" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C68" s="1"/>
+    </row>
+    <row r="69" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B69" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B67" t="s">
+    <row r="76" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B76" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B68" t="s">
+    <row r="77" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C77" s="1">
+        <v>45979</v>
+      </c>
+      <c r="D77" t="s">
+        <v>80</v>
+      </c>
+      <c r="E77" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="78" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C78" s="1">
+        <v>45979</v>
+      </c>
+      <c r="D78" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="79" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C79" s="1">
+        <v>45979</v>
+      </c>
+      <c r="D79" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="83" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B83" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B70" t="s">
+    <row r="85" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B85" t="s">
         <v>47</v>
       </c>
-      <c r="G70">
+      <c r="G85">
         <f>SUM(Table1[Member list complete?])</f>
-        <v>6</v>
-      </c>
-      <c r="H70">
+        <v>8</v>
+      </c>
+      <c r="H85">
         <f>SUM(Table1[Cntr])</f>
         <v>27</v>
       </c>
-      <c r="I70" s="5">
-        <f>G70/H70</f>
-        <v>0.22222222222222221</v>
+      <c r="I85" s="5">
+        <f>G85/H85</f>
+        <v>0.29629629629629628</v>
       </c>
     </row>
   </sheetData>

--- a/11-CollaborationList/2025-11-Refresh/00-RefreshLog.xlsx
+++ b/11-CollaborationList/2025-11-Refresh/00-RefreshLog.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11109"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/longkr/Library/CloudStorage/Box-Box/CubMac-Box/KL-GIT/CCAP/02-LhARA/00-Collaboration-lists/11-CollaborationList/2025-11-Refresh/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://api.box.com/wopi/files/2050105903112/WOPIServiceId_TP_BOX_2/WOPIUserId_-/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{046D63E1-063A-8D40-99B7-7ED47EA959D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{046D63E1-063A-8D40-99B7-7ED47EA959D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{145C7EBE-3EDF-5046-804F-6D29FD54FC44}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="28800" xr2:uid="{9AD4C775-BB02-1F4A-9451-959360E31C15}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{9AD4C775-BB02-1F4A-9451-959360E31C15}"/>
   </bookViews>
   <sheets>
     <sheet name="lisst" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="85">
   <si>
     <t>ASU.xlsx</t>
   </si>
@@ -285,6 +285,9 @@
   </si>
   <si>
     <t>Jorg and Katia</t>
+  </si>
+  <si>
+    <t>P.McKenna sent new list</t>
   </si>
 </sst>
 </file>
@@ -850,8 +853,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7E76B90B-1F1C-C048-9567-529E0CFCD19F}" name="Table1" displayName="Table1" ref="A1:H83" totalsRowShown="0">
-  <autoFilter ref="A1:H83" xr:uid="{7E76B90B-1F1C-C048-9567-529E0CFCD19F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7E76B90B-1F1C-C048-9567-529E0CFCD19F}" name="Table1" displayName="Table1" ref="A1:H84" totalsRowShown="0">
+  <autoFilter ref="A1:H84" xr:uid="{7E76B90B-1F1C-C048-9567-529E0CFCD19F}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{1B122CB6-63D6-7345-875C-B51685430DD3}" name="Institute"/>
     <tableColumn id="2" xr3:uid="{848FCA04-184B-824E-859C-4BA3DD5B6678}" name="Spreadsheet"/>
@@ -1183,10 +1186,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31D84185-4893-984F-81CD-365C50C740D1}">
-  <dimension ref="A1:I85"/>
+  <dimension ref="A1:I86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D80" sqref="D80"/>
+      <selection activeCell="A52" sqref="A52:XFD53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
@@ -1802,7 +1805,7 @@
     <row r="51" spans="1:8" collapsed="1" x14ac:dyDescent="0.2">
       <c r="C51" s="1"/>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:8" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>69</v>
       </c>
@@ -1815,163 +1818,172 @@
       <c r="D52" t="s">
         <v>36</v>
       </c>
+      <c r="E52" s="1">
+        <v>45980</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>84</v>
+      </c>
       <c r="G52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H52">
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C53" s="1"/>
-    </row>
-    <row r="54" spans="1:8" ht="34" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="3" t="s">
+      <c r="E53">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="C54" s="1"/>
+    </row>
+    <row r="55" spans="1:8" ht="34" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="B54" s="3" t="s">
+      <c r="B55" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C54" s="4">
-        <v>45972</v>
-      </c>
-      <c r="D54" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E54" s="4">
-        <v>45972</v>
-      </c>
-      <c r="F54" s="2" t="s">
+      <c r="C55" s="4">
+        <v>45972</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E55" s="4">
+        <v>45972</v>
+      </c>
+      <c r="F55" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="G54" s="3">
-        <v>1</v>
-      </c>
-      <c r="H54" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="3"/>
-      <c r="B55" s="3"/>
-      <c r="C55" s="4"/>
-      <c r="D55" s="3"/>
-      <c r="E55" s="4">
-        <v>11</v>
-      </c>
-      <c r="G55" s="3"/>
-    </row>
-    <row r="56" spans="1:8" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="G55" s="3">
+        <v>1</v>
+      </c>
+      <c r="H55" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A56" s="3"/>
       <c r="B56" s="3"/>
       <c r="C56" s="4"/>
       <c r="D56" s="3"/>
-      <c r="E56" s="4"/>
+      <c r="E56" s="4">
+        <v>11</v>
+      </c>
       <c r="G56" s="3"/>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
+    <row r="57" spans="1:8" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="3"/>
+      <c r="B57" s="3"/>
+      <c r="C57" s="4"/>
+      <c r="D57" s="3"/>
+      <c r="E57" s="4"/>
+      <c r="G57" s="3"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
         <v>71</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B58" t="s">
         <v>23</v>
       </c>
-      <c r="C57" s="1">
-        <v>45972</v>
-      </c>
-      <c r="D57" t="s">
-        <v>36</v>
-      </c>
-      <c r="G57">
+      <c r="C58" s="1">
+        <v>45972</v>
+      </c>
+      <c r="D58" t="s">
+        <v>36</v>
+      </c>
+      <c r="G58">
         <v>0</v>
       </c>
-      <c r="H57">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C58" s="1"/>
-    </row>
-    <row r="59" spans="1:8" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
+      <c r="H58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C59" s="1"/>
+    </row>
+    <row r="60" spans="1:8" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
         <v>49</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B60" t="s">
         <v>24</v>
       </c>
-      <c r="C59" s="1">
-        <v>45972</v>
-      </c>
-      <c r="D59" t="s">
-        <v>36</v>
-      </c>
-      <c r="E59" s="1">
-        <v>45972</v>
-      </c>
-      <c r="F59" s="2" t="s">
+      <c r="C60" s="1">
+        <v>45972</v>
+      </c>
+      <c r="D60" t="s">
+        <v>36</v>
+      </c>
+      <c r="E60" s="1">
+        <v>45972</v>
+      </c>
+      <c r="F60" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="G59">
+      <c r="G60">
         <v>0</v>
       </c>
-      <c r="H59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C60" s="1"/>
-      <c r="E60" s="1">
+      <c r="H60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="C61" s="1"/>
+      <c r="E61" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="61" spans="1:8" collapsed="1" x14ac:dyDescent="0.2">
-      <c r="C61" s="1"/>
-      <c r="G61">
+    <row r="62" spans="1:8" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="C62" s="1"/>
+      <c r="G62">
         <v>0</v>
       </c>
-      <c r="H61">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C62" s="1"/>
-    </row>
-    <row r="63" spans="1:8" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
+      <c r="H62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C63" s="1"/>
+    </row>
+    <row r="64" spans="1:8" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
         <v>72</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B64" t="s">
         <v>25</v>
       </c>
-      <c r="C63" s="1">
-        <v>45972</v>
-      </c>
-      <c r="D63" t="s">
-        <v>36</v>
-      </c>
-      <c r="E63" s="1">
+      <c r="C64" s="1">
+        <v>45972</v>
+      </c>
+      <c r="D64" t="s">
+        <v>36</v>
+      </c>
+      <c r="E64" s="1">
         <v>45973</v>
       </c>
-      <c r="F63" s="2" t="s">
+      <c r="F64" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="G63">
-        <v>1</v>
-      </c>
-      <c r="H63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C64" s="1"/>
-      <c r="E64">
+      <c r="G64">
+        <v>1</v>
+      </c>
+      <c r="H64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="C65" s="1"/>
+      <c r="E65">
         <v>12</v>
       </c>
     </row>
-    <row r="65" spans="2:5" collapsed="1" x14ac:dyDescent="0.2">
-      <c r="C65" s="1"/>
-    </row>
-    <row r="66" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:5" collapsed="1" x14ac:dyDescent="0.2">
       <c r="C66" s="1"/>
     </row>
     <row r="67" spans="2:5" x14ac:dyDescent="0.2">
@@ -1981,24 +1993,16 @@
       <c r="C68" s="1"/>
     </row>
     <row r="69" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B69" t="s">
+      <c r="C69" s="1"/>
+    </row>
+    <row r="70" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B70" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="76" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B76" t="s">
+    <row r="77" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B77" t="s">
         <v>27</v>
-      </c>
-    </row>
-    <row r="77" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C77" s="1">
-        <v>45979</v>
-      </c>
-      <c r="D77" t="s">
-        <v>80</v>
-      </c>
-      <c r="E77" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="78" spans="2:5" x14ac:dyDescent="0.2">
@@ -2006,7 +2010,10 @@
         <v>45979</v>
       </c>
       <c r="D78" t="s">
-        <v>82</v>
+        <v>80</v>
+      </c>
+      <c r="E78" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="79" spans="2:5" x14ac:dyDescent="0.2">
@@ -2014,29 +2021,37 @@
         <v>45979</v>
       </c>
       <c r="D79" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="80" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C80" s="1">
+        <v>45979</v>
+      </c>
+      <c r="D80" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B83" t="s">
+    <row r="84" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B84" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B85" t="s">
+    <row r="86" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B86" t="s">
         <v>47</v>
       </c>
-      <c r="G85">
+      <c r="G86">
         <f>SUM(Table1[Member list complete?])</f>
-        <v>8</v>
-      </c>
-      <c r="H85">
+        <v>9</v>
+      </c>
+      <c r="H86">
         <f>SUM(Table1[Cntr])</f>
         <v>27</v>
       </c>
-      <c r="I85" s="5">
-        <f>G85/H85</f>
-        <v>0.29629629629629628</v>
+      <c r="I86" s="5">
+        <f>G86/H86</f>
+        <v>0.33333333333333331</v>
       </c>
     </row>
   </sheetData>

--- a/11-CollaborationList/2025-11-Refresh/00-RefreshLog.xlsx
+++ b/11-CollaborationList/2025-11-Refresh/00-RefreshLog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://api.box.com/wopi/files/2050105903112/WOPIServiceId_TP_BOX_2/WOPIUserId_-/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{046D63E1-063A-8D40-99B7-7ED47EA959D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{145C7EBE-3EDF-5046-804F-6D29FD54FC44}"/>
+  <xr:revisionPtr revIDLastSave="96" documentId="13_ncr:1_{046D63E1-063A-8D40-99B7-7ED47EA959D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{39F88584-8305-7B49-8D38-03EB6B9F278A}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{9AD4C775-BB02-1F4A-9451-959360E31C15}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="89">
   <si>
     <t>ASU.xlsx</t>
   </si>
@@ -176,9 +176,6 @@
     <t>Imperial</t>
   </si>
   <si>
-    <t>Consider Ugo Amaldi</t>
-  </si>
-  <si>
     <t>Update to R.Amos info (in UCL_RAA.xlsx).</t>
   </si>
   <si>
@@ -288,6 +285,21 @@
   </si>
   <si>
     <t>P.McKenna sent new list</t>
+  </si>
+  <si>
+    <t>Reminder of deadline sent</t>
+  </si>
+  <si>
+    <t>Emailed all non-obvious members</t>
+  </si>
+  <si>
+    <t>Added Jeff update, sent reminder</t>
+  </si>
+  <si>
+    <t>Dresden</t>
+  </si>
+  <si>
+    <t>LMU</t>
   </si>
 </sst>
 </file>
@@ -853,8 +865,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7E76B90B-1F1C-C048-9567-529E0CFCD19F}" name="Table1" displayName="Table1" ref="A1:H84" totalsRowShown="0">
-  <autoFilter ref="A1:H84" xr:uid="{7E76B90B-1F1C-C048-9567-529E0CFCD19F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7E76B90B-1F1C-C048-9567-529E0CFCD19F}" name="Table1" displayName="Table1" ref="A1:H97" totalsRowShown="0">
+  <autoFilter ref="A1:H97" xr:uid="{7E76B90B-1F1C-C048-9567-529E0CFCD19F}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{1B122CB6-63D6-7345-875C-B51685430DD3}" name="Institute"/>
     <tableColumn id="2" xr3:uid="{848FCA04-184B-824E-859C-4BA3DD5B6678}" name="Spreadsheet"/>
@@ -1186,10 +1198,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31D84185-4893-984F-81CD-365C50C740D1}">
-  <dimension ref="A1:I86"/>
+  <dimension ref="A1:I99"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A52" sqref="A52:XFD53"/>
+    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
+      <selection activeCell="B99" sqref="B99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
@@ -1197,7 +1209,7 @@
     <col min="1" max="1" width="34" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.33203125" customWidth="1"/>
     <col min="5" max="5" width="23.33203125" customWidth="1"/>
     <col min="6" max="6" width="42.1640625" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22.83203125" bestFit="1" customWidth="1"/>
@@ -1226,10 +1238,10 @@
         <v>35</v>
       </c>
       <c r="H1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>31</v>
       </c>
@@ -1237,10 +1249,10 @@
         <v>0</v>
       </c>
       <c r="C2" s="1">
-        <v>45971</v>
+        <v>45981</v>
       </c>
       <c r="D2" t="s">
-        <v>36</v>
+        <v>84</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -1249,102 +1261,95 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C3" s="1"/>
-    </row>
-    <row r="4" spans="1:8" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+    <row r="3" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="C3" s="1">
+        <v>45971</v>
+      </c>
+      <c r="D3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="C4" s="1"/>
+    </row>
+    <row r="5" spans="1:8" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>39</v>
       </c>
-      <c r="B4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="1">
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1">
         <v>45971</v>
       </c>
-      <c r="D4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E4" s="1">
-        <v>45972</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C5" s="1"/>
-      <c r="E5">
+      <c r="D5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="1">
+        <v>45972</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="C6" s="1"/>
+      <c r="E6">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:8" collapsed="1" x14ac:dyDescent="0.2">
-      <c r="C6" s="1"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+    <row r="7" spans="1:8" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>40</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="1">
-        <v>45971</v>
-      </c>
-      <c r="D7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G7">
+      <c r="C8" s="1">
+        <v>45981</v>
+      </c>
+      <c r="D8" t="s">
+        <v>84</v>
+      </c>
+      <c r="G8">
         <v>0</v>
       </c>
-      <c r="H7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C8" s="1"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>41</v>
-      </c>
-      <c r="B9" t="s">
-        <v>3</v>
-      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C9" s="1">
         <v>45971</v>
       </c>
       <c r="D9" t="s">
-        <v>38</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" collapsed="1" x14ac:dyDescent="0.2">
       <c r="C10" s="1"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B11" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C11" s="1">
         <v>45971</v>
       </c>
       <c r="D11" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -1356,18 +1361,18 @@
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C12" s="1"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B13" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C13" s="1">
-        <v>45971</v>
+        <v>45981</v>
       </c>
       <c r="D13" t="s">
-        <v>36</v>
+        <v>84</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -1376,58 +1381,60 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C14" s="1"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+    <row r="14" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="C14" s="1">
+        <v>45971</v>
+      </c>
+      <c r="D14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="C15" s="1"/>
+    </row>
+    <row r="16" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="1">
+        <v>45981</v>
+      </c>
+      <c r="D16" t="s">
+        <v>84</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="C17" s="1">
+        <v>45971</v>
+      </c>
+      <c r="D17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="C18" s="1"/>
+    </row>
+    <row r="19" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
         <v>45</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B19" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="1">
-        <v>45971</v>
-      </c>
-      <c r="D15" t="s">
-        <v>36</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C16" s="1"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>46</v>
-      </c>
-      <c r="B17" t="s">
-        <v>7</v>
-      </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>62</v>
-      </c>
-      <c r="B19" t="s">
-        <v>8</v>
-      </c>
       <c r="C19" s="1">
-        <v>45972</v>
+        <v>45981</v>
       </c>
       <c r="D19" t="s">
-        <v>36</v>
+        <v>84</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1436,76 +1443,58 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C20" s="1"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>63</v>
-      </c>
-      <c r="B21" t="s">
-        <v>9</v>
-      </c>
-      <c r="C21" s="1">
-        <v>45972</v>
-      </c>
-      <c r="D21" t="s">
-        <v>36</v>
-      </c>
-      <c r="G21">
+    <row r="20" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="C20" s="1">
+        <v>45971</v>
+      </c>
+      <c r="D20" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="C21" s="1"/>
+    </row>
+    <row r="22" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>46</v>
+      </c>
+      <c r="B22" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="1">
+        <v>45981</v>
+      </c>
+      <c r="D22" t="s">
+        <v>85</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="H22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="C23" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" collapsed="1" x14ac:dyDescent="0.2"/>
+    <row r="25" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>61</v>
+      </c>
+      <c r="B25" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" s="1">
+        <v>45972</v>
+      </c>
+      <c r="D25" t="s">
+        <v>36</v>
+      </c>
+      <c r="G25">
         <v>0</v>
-      </c>
-      <c r="H21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C22" s="1"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>64</v>
-      </c>
-      <c r="B23" t="s">
-        <v>10</v>
-      </c>
-      <c r="C23" s="1">
-        <v>45972</v>
-      </c>
-      <c r="D23" t="s">
-        <v>36</v>
-      </c>
-      <c r="G23">
-        <v>0</v>
-      </c>
-      <c r="H23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C24" s="1"/>
-    </row>
-    <row r="25" spans="1:8" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>53</v>
-      </c>
-      <c r="B25" t="s">
-        <v>11</v>
-      </c>
-      <c r="C25" s="1">
-        <v>45972</v>
-      </c>
-      <c r="D25" t="s">
-        <v>36</v>
-      </c>
-      <c r="E25" s="1">
-        <v>45972</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="G25">
-        <v>1</v>
       </c>
       <c r="H25">
         <v>1</v>
@@ -1516,24 +1505,24 @@
         <v>45972</v>
       </c>
       <c r="D26" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
     </row>
     <row r="27" spans="1:8" collapsed="1" x14ac:dyDescent="0.2">
       <c r="C27" s="1"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B28" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C28" s="1">
-        <v>45972</v>
+        <v>45981</v>
       </c>
       <c r="D28" t="s">
-        <v>36</v>
+        <v>86</v>
       </c>
       <c r="G28">
         <v>0</v>
@@ -1542,228 +1531,223 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C29" s="1"/>
-    </row>
-    <row r="30" spans="1:8" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
+    <row r="29" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="C29" s="1">
+        <v>45972</v>
+      </c>
+      <c r="D29" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="C30" s="1"/>
+    </row>
+    <row r="31" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>63</v>
+      </c>
+      <c r="B31" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31" s="1">
+        <v>45981</v>
+      </c>
+      <c r="D31" t="s">
+        <v>84</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="C32" s="1">
+        <v>45972</v>
+      </c>
+      <c r="D32" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="C33" s="1"/>
+    </row>
+    <row r="34" spans="1:8" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>52</v>
+      </c>
+      <c r="B34" t="s">
+        <v>11</v>
+      </c>
+      <c r="C34" s="1">
+        <v>45972</v>
+      </c>
+      <c r="D34" t="s">
+        <v>36</v>
+      </c>
+      <c r="E34" s="1">
+        <v>45972</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G34">
+        <v>1</v>
+      </c>
+      <c r="H34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="C35" s="1">
+        <v>45972</v>
+      </c>
+      <c r="D35" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="C36" s="1"/>
+    </row>
+    <row r="37" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>60</v>
+      </c>
+      <c r="B37" t="s">
+        <v>12</v>
+      </c>
+      <c r="C37" s="1">
+        <v>45981</v>
+      </c>
+      <c r="D37" t="s">
+        <v>84</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="C38" s="1">
+        <v>45972</v>
+      </c>
+      <c r="D38" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>64</v>
+      </c>
+      <c r="B39" t="s">
+        <v>13</v>
+      </c>
+      <c r="C39" s="1">
+        <v>45972</v>
+      </c>
+      <c r="D39" t="s">
+        <v>36</v>
+      </c>
+      <c r="E39" s="1">
+        <v>45978</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="G39">
+        <v>1</v>
+      </c>
+      <c r="H39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="C40" s="1"/>
+      <c r="E40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="C41" s="1"/>
+    </row>
+    <row r="42" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
         <v>65</v>
       </c>
-      <c r="B30" t="s">
-        <v>13</v>
-      </c>
-      <c r="C30" s="1">
-        <v>45972</v>
-      </c>
-      <c r="D30" t="s">
-        <v>36</v>
-      </c>
-      <c r="E30" s="1">
-        <v>45978</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="G30">
-        <v>1</v>
-      </c>
-      <c r="H30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C31" s="1"/>
-      <c r="E31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" collapsed="1" x14ac:dyDescent="0.2">
-      <c r="C32" s="1"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
+      <c r="B42" t="s">
+        <v>14</v>
+      </c>
+      <c r="C42" s="1">
+        <v>45972</v>
+      </c>
+      <c r="D42" t="s">
+        <v>36</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="C43" s="1">
+        <v>45972</v>
+      </c>
+      <c r="D43" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="C44" s="1"/>
+    </row>
+    <row r="45" spans="1:8" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
         <v>66</v>
       </c>
-      <c r="B33" t="s">
-        <v>14</v>
-      </c>
-      <c r="C33" s="1">
-        <v>45972</v>
-      </c>
-      <c r="D33" t="s">
-        <v>36</v>
-      </c>
-      <c r="G33">
+      <c r="B45" t="s">
+        <v>15</v>
+      </c>
+      <c r="C45" s="1">
+        <v>45972</v>
+      </c>
+      <c r="D45" t="s">
+        <v>36</v>
+      </c>
+      <c r="E45" s="1">
+        <v>45973</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G45">
         <v>0</v>
       </c>
-      <c r="H33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C34" s="1"/>
-    </row>
-    <row r="35" spans="1:8" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>67</v>
-      </c>
-      <c r="B35" t="s">
-        <v>15</v>
-      </c>
-      <c r="C35" s="1">
-        <v>45972</v>
-      </c>
-      <c r="D35" t="s">
-        <v>36</v>
-      </c>
-      <c r="E35" s="1">
-        <v>45973</v>
-      </c>
-      <c r="F35" s="2" t="s">
+      <c r="H45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="C46" s="1"/>
+      <c r="E46" s="1">
+        <v>45975</v>
+      </c>
+      <c r="F46" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="G35">
-        <v>0</v>
-      </c>
-      <c r="H35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C36" s="1"/>
-      <c r="E36" s="1">
-        <v>45975</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" collapsed="1" x14ac:dyDescent="0.2">
-      <c r="C37" s="1"/>
-    </row>
-    <row r="38" spans="1:8" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>56</v>
-      </c>
-      <c r="B38" t="s">
-        <v>16</v>
-      </c>
-      <c r="C38" s="1">
-        <v>45972</v>
-      </c>
-      <c r="D38" t="s">
-        <v>36</v>
-      </c>
-      <c r="E38" s="1">
-        <v>45972</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="G38">
-        <v>1</v>
-      </c>
-      <c r="H38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C39" s="1"/>
-      <c r="E39" s="1">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" collapsed="1" x14ac:dyDescent="0.2">
-      <c r="C40" s="1"/>
-      <c r="E40" s="1"/>
-    </row>
-    <row r="41" spans="1:8" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>50</v>
-      </c>
-      <c r="B41" t="s">
-        <v>17</v>
-      </c>
-      <c r="C41" s="1">
-        <v>45972</v>
-      </c>
-      <c r="D41" t="s">
-        <v>36</v>
-      </c>
-      <c r="E41" s="1">
-        <v>45972</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="G41">
-        <v>1</v>
-      </c>
-      <c r="H41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C42" s="1"/>
-      <c r="E42">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" collapsed="1" x14ac:dyDescent="0.2">
-      <c r="C43" s="1"/>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>68</v>
-      </c>
-      <c r="B44" t="s">
-        <v>18</v>
-      </c>
-      <c r="C44" s="1">
-        <v>45972</v>
-      </c>
-      <c r="D44" t="s">
-        <v>36</v>
-      </c>
-      <c r="G44">
-        <v>0</v>
-      </c>
-      <c r="H44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C45" s="1"/>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>43</v>
-      </c>
-      <c r="B46" t="s">
-        <v>19</v>
-      </c>
-      <c r="C46" s="1">
-        <v>45971</v>
-      </c>
-      <c r="D46" t="s">
-        <v>36</v>
-      </c>
-      <c r="G46">
-        <v>0</v>
-      </c>
-      <c r="H46">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="47" spans="1:8" collapsed="1" x14ac:dyDescent="0.2">
       <c r="C47" s="1"/>
     </row>
     <row r="48" spans="1:8" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B48" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C48" s="1">
         <v>45972</v>
@@ -1775,7 +1759,7 @@
         <v>45972</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G48">
         <v>1</v>
@@ -1784,135 +1768,119 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C49" s="1"/>
       <c r="E49" s="1">
-        <v>45975</v>
-      </c>
-      <c r="F49" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" collapsed="1" x14ac:dyDescent="0.2">
       <c r="C50" s="1"/>
-      <c r="E50" s="1">
-        <v>45978</v>
-      </c>
-      <c r="F50" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" collapsed="1" x14ac:dyDescent="0.2">
-      <c r="C51" s="1"/>
-    </row>
-    <row r="52" spans="1:8" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>69</v>
-      </c>
-      <c r="B52" t="s">
-        <v>21</v>
-      </c>
-      <c r="C52" s="1">
-        <v>45972</v>
-      </c>
-      <c r="D52" t="s">
-        <v>36</v>
-      </c>
-      <c r="E52" s="1">
-        <v>45980</v>
-      </c>
-      <c r="F52" s="2" t="s">
+      <c r="E50" s="1"/>
+    </row>
+    <row r="51" spans="1:8" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>17</v>
+      </c>
+      <c r="C51" s="1">
+        <v>45972</v>
+      </c>
+      <c r="D51" t="s">
+        <v>36</v>
+      </c>
+      <c r="E51" s="1">
+        <v>45972</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G51">
+        <v>1</v>
+      </c>
+      <c r="H51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="C52" s="1"/>
+      <c r="E52">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="C53" s="1"/>
+    </row>
+    <row r="54" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>67</v>
+      </c>
+      <c r="B54" t="s">
+        <v>18</v>
+      </c>
+      <c r="C54" s="1">
+        <v>45981</v>
+      </c>
+      <c r="D54" t="s">
         <v>84</v>
       </c>
-      <c r="G52">
-        <v>1</v>
-      </c>
-      <c r="H52">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C53" s="1"/>
-      <c r="E53">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" collapsed="1" x14ac:dyDescent="0.2">
-      <c r="C54" s="1"/>
-    </row>
-    <row r="55" spans="1:8" ht="34" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C55" s="4">
-        <v>45972</v>
-      </c>
-      <c r="D55" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E55" s="4">
-        <v>45972</v>
-      </c>
-      <c r="F55" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="G55" s="3">
-        <v>1</v>
-      </c>
-      <c r="H55" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="3"/>
-      <c r="B56" s="3"/>
-      <c r="C56" s="4"/>
-      <c r="D56" s="3"/>
-      <c r="E56" s="4">
-        <v>11</v>
-      </c>
-      <c r="G56" s="3"/>
-    </row>
-    <row r="57" spans="1:8" collapsed="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="3"/>
-      <c r="B57" s="3"/>
-      <c r="C57" s="4"/>
-      <c r="D57" s="3"/>
-      <c r="E57" s="4"/>
-      <c r="G57" s="3"/>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
-        <v>71</v>
-      </c>
-      <c r="B58" t="s">
-        <v>23</v>
-      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="C55" s="1">
+        <v>45972</v>
+      </c>
+      <c r="D55" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="C56" s="1"/>
+    </row>
+    <row r="57" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>43</v>
+      </c>
+      <c r="B57" t="s">
+        <v>19</v>
+      </c>
+      <c r="C57" s="1">
+        <v>45981</v>
+      </c>
+      <c r="D57" t="s">
+        <v>84</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C58" s="1">
-        <v>45972</v>
+        <v>45971</v>
       </c>
       <c r="D58" t="s">
         <v>36</v>
       </c>
-      <c r="G58">
-        <v>0</v>
-      </c>
-      <c r="H58">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="59" spans="1:8" collapsed="1" x14ac:dyDescent="0.2">
       <c r="C59" s="1"/>
     </row>
     <row r="60" spans="1:8" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C60" s="1">
         <v>45972</v>
@@ -1924,39 +1892,42 @@
         <v>45972</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="G60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H60">
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:8" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C61" s="1"/>
       <c r="E61" s="1">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" collapsed="1" x14ac:dyDescent="0.2">
+        <v>45975</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C62" s="1"/>
-      <c r="G62">
-        <v>0</v>
-      </c>
-      <c r="H62">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E62" s="1">
+        <v>45978</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" collapsed="1" x14ac:dyDescent="0.2">
       <c r="C63" s="1"/>
     </row>
     <row r="64" spans="1:8" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B64" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C64" s="1">
         <v>45972</v>
@@ -1965,10 +1936,10 @@
         <v>36</v>
       </c>
       <c r="E64" s="1">
-        <v>45973</v>
+        <v>45980</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="G64">
         <v>1</v>
@@ -1977,81 +1948,238 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C65" s="1"/>
       <c r="E65">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="C66" s="1"/>
+    </row>
+    <row r="67" spans="1:8" ht="34" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C67" s="4">
+        <v>45972</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E67" s="4">
+        <v>45972</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G67" s="3">
+        <v>1</v>
+      </c>
+      <c r="H67" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="3"/>
+      <c r="B68" s="3"/>
+      <c r="C68" s="4"/>
+      <c r="D68" s="3"/>
+      <c r="E68" s="4">
+        <v>11</v>
+      </c>
+      <c r="G68" s="3"/>
+    </row>
+    <row r="69" spans="1:8" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="3"/>
+      <c r="B69" s="3"/>
+      <c r="C69" s="4"/>
+      <c r="D69" s="3"/>
+      <c r="E69" s="4"/>
+      <c r="G69" s="3"/>
+    </row>
+    <row r="70" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>70</v>
+      </c>
+      <c r="B70" t="s">
+        <v>23</v>
+      </c>
+      <c r="C70" s="1">
+        <v>45981</v>
+      </c>
+      <c r="D70" t="s">
+        <v>84</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="C71" s="1">
+        <v>45972</v>
+      </c>
+      <c r="D71" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="C72" s="1"/>
+    </row>
+    <row r="73" spans="1:8" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>48</v>
+      </c>
+      <c r="B73" t="s">
+        <v>24</v>
+      </c>
+      <c r="C73" s="1">
+        <v>45972</v>
+      </c>
+      <c r="D73" t="s">
+        <v>36</v>
+      </c>
+      <c r="E73" s="1">
+        <v>45972</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G73">
+        <v>0</v>
+      </c>
+      <c r="H73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="C74" s="1"/>
+      <c r="E74" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="C75" s="1"/>
+      <c r="G75">
+        <v>0</v>
+      </c>
+      <c r="H75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C76" s="1"/>
+    </row>
+    <row r="77" spans="1:8" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>71</v>
+      </c>
+      <c r="B77" t="s">
+        <v>25</v>
+      </c>
+      <c r="C77" s="1">
+        <v>45972</v>
+      </c>
+      <c r="D77" t="s">
+        <v>36</v>
+      </c>
+      <c r="E77" s="1">
+        <v>45973</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G77">
+        <v>1</v>
+      </c>
+      <c r="H77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="C78" s="1"/>
+      <c r="E78">
         <v>12</v>
       </c>
     </row>
-    <row r="66" spans="2:5" collapsed="1" x14ac:dyDescent="0.2">
-      <c r="C66" s="1"/>
-    </row>
-    <row r="67" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C67" s="1"/>
-    </row>
-    <row r="68" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C68" s="1"/>
-    </row>
-    <row r="69" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C69" s="1"/>
-    </row>
-    <row r="70" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B70" t="s">
+    <row r="79" spans="1:8" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="C79" s="1"/>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C80" s="1"/>
+    </row>
+    <row r="81" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C81" s="1"/>
+    </row>
+    <row r="82" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C82" s="1"/>
+    </row>
+    <row r="83" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B83" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="77" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B77" t="s">
+    <row r="90" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B90" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="78" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C78" s="1">
+    <row r="91" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C91" s="1">
         <v>45979</v>
       </c>
-      <c r="D78" t="s">
+      <c r="D91" t="s">
+        <v>79</v>
+      </c>
+      <c r="E91" t="s">
         <v>80</v>
       </c>
-      <c r="E78" t="s">
+    </row>
+    <row r="92" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C92" s="1">
+        <v>45979</v>
+      </c>
+      <c r="D92" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="79" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C79" s="1">
+      <c r="E92" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="93" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C93" s="1">
         <v>45979</v>
       </c>
-      <c r="D79" t="s">
+      <c r="D93" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="80" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C80" s="1">
-        <v>45979</v>
-      </c>
-      <c r="D80" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B84" t="s">
+      <c r="E93" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="97" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B97" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B86" t="s">
-        <v>47</v>
-      </c>
-      <c r="G86">
+    <row r="99" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="G99">
         <f>SUM(Table1[Member list complete?])</f>
-        <v>9</v>
-      </c>
-      <c r="H86">
+        <v>10</v>
+      </c>
+      <c r="H99">
         <f>SUM(Table1[Cntr])</f>
         <v>27</v>
       </c>
-      <c r="I86" s="5">
-        <f>G86/H86</f>
-        <v>0.33333333333333331</v>
+      <c r="I99" s="5">
+        <f>G99/H99</f>
+        <v>0.37037037037037035</v>
       </c>
     </row>
   </sheetData>

--- a/11-CollaborationList/2025-11-Refresh/00-RefreshLog.xlsx
+++ b/11-CollaborationList/2025-11-Refresh/00-RefreshLog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://api.box.com/wopi/files/2050105903112/WOPIServiceId_TP_BOX_2/WOPIUserId_-/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="96" documentId="13_ncr:1_{046D63E1-063A-8D40-99B7-7ED47EA959D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{39F88584-8305-7B49-8D38-03EB6B9F278A}"/>
+  <xr:revisionPtr revIDLastSave="242" documentId="13_ncr:1_{046D63E1-063A-8D40-99B7-7ED47EA959D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{41A6755F-55F9-3743-AE25-A208CD55BAF9}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{9AD4C775-BB02-1F4A-9451-959360E31C15}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="31700" windowHeight="26900" xr2:uid="{9AD4C775-BB02-1F4A-9451-959360E31C15}"/>
   </bookViews>
   <sheets>
     <sheet name="lisst" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="106">
   <si>
     <t>ASU.xlsx</t>
   </si>
@@ -300,6 +300,57 @@
   </si>
   <si>
     <t>LMU</t>
+  </si>
+  <si>
+    <t>Lotte replies only her.</t>
+  </si>
+  <si>
+    <t>Update from Tony</t>
+  </si>
+  <si>
+    <t>OK go ahead</t>
+  </si>
+  <si>
+    <t>LLNL</t>
+  </si>
+  <si>
+    <t>DOE-LLNL.xlsx</t>
+  </si>
+  <si>
+    <t>Antoine is in!</t>
+  </si>
+  <si>
+    <t>Nagged; perhaps only Alfredo.</t>
+  </si>
+  <si>
+    <t>Say will remove !</t>
+  </si>
+  <si>
+    <t>Encouraged to stay to get Italian collab</t>
+  </si>
+  <si>
+    <t>Nagged … need at least Elisabetta and Titus</t>
+  </si>
+  <si>
+    <t>Nagged</t>
+  </si>
+  <si>
+    <t>Added Mike Taylor to email thread andn nagged</t>
+  </si>
+  <si>
+    <t>Checking with Amatoi</t>
+  </si>
+  <si>
+    <t>Strategy question sent to Paul M</t>
+  </si>
+  <si>
+    <t>Stefan's list used.</t>
+  </si>
+  <si>
+    <t>Asked RA and BC to confiorm OK</t>
+  </si>
+  <si>
+    <t>RA Oked.</t>
   </si>
 </sst>
 </file>
@@ -865,8 +916,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7E76B90B-1F1C-C048-9567-529E0CFCD19F}" name="Table1" displayName="Table1" ref="A1:H97" totalsRowShown="0">
-  <autoFilter ref="A1:H97" xr:uid="{7E76B90B-1F1C-C048-9567-529E0CFCD19F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7E76B90B-1F1C-C048-9567-529E0CFCD19F}" name="Table1" displayName="Table1" ref="A1:H114" totalsRowShown="0">
+  <autoFilter ref="A1:H114" xr:uid="{7E76B90B-1F1C-C048-9567-529E0CFCD19F}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{1B122CB6-63D6-7345-875C-B51685430DD3}" name="Institute"/>
     <tableColumn id="2" xr3:uid="{848FCA04-184B-824E-859C-4BA3DD5B6678}" name="Spreadsheet"/>
@@ -1198,10 +1249,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31D84185-4893-984F-81CD-365C50C740D1}">
-  <dimension ref="A1:I99"/>
+  <dimension ref="A1:I116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
-      <selection activeCell="B99" sqref="B99"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A93" sqref="A93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
@@ -1209,7 +1260,7 @@
     <col min="1" max="1" width="34" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.33203125" customWidth="1"/>
+    <col min="4" max="4" width="39.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23.33203125" customWidth="1"/>
     <col min="6" max="6" width="42.1640625" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22.83203125" bestFit="1" customWidth="1"/>
@@ -1249,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="C2" s="1">
-        <v>45981</v>
+        <v>45982</v>
       </c>
       <c r="D2" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -1263,116 +1314,109 @@
     </row>
     <row r="3" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C3" s="1">
+        <v>45981</v>
+      </c>
+      <c r="D3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="C4" s="1">
         <v>45971</v>
       </c>
-      <c r="D3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" collapsed="1" x14ac:dyDescent="0.2">
-      <c r="C4" s="1"/>
-    </row>
-    <row r="5" spans="1:8" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="D4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="C5" s="1"/>
+    </row>
+    <row r="6" spans="1:8" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>39</v>
       </c>
-      <c r="B5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="1">
+      <c r="B6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1">
         <v>45971</v>
       </c>
-      <c r="D5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E5" s="1">
-        <v>45972</v>
-      </c>
-      <c r="F5" s="2" t="s">
+      <c r="D6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="1">
+        <v>45972</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C6" s="1"/>
-      <c r="E6">
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="C7" s="1"/>
+      <c r="E7">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:8" collapsed="1" x14ac:dyDescent="0.2">
-      <c r="C7" s="1"/>
-    </row>
-    <row r="8" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+    <row r="8" spans="1:8" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>40</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B9" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C9" s="1">
+        <v>45984</v>
+      </c>
+      <c r="D9" t="s">
+        <v>90</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="C10" s="1">
         <v>45981</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D10" t="s">
         <v>84</v>
       </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C9" s="1">
-        <v>45971</v>
-      </c>
-      <c r="D9" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" collapsed="1" x14ac:dyDescent="0.2">
-      <c r="C10" s="1"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>41</v>
-      </c>
-      <c r="B11" t="s">
-        <v>3</v>
-      </c>
+    </row>
+    <row r="11" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C11" s="1">
         <v>45971</v>
       </c>
       <c r="D11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="C12" s="1"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="1">
+        <v>45971</v>
+      </c>
+      <c r="D13" t="s">
         <v>38</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C12" s="1"/>
-    </row>
-    <row r="13" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>42</v>
-      </c>
-      <c r="B13" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13" s="1">
-        <v>45981</v>
-      </c>
-      <c r="D13" t="s">
-        <v>84</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -1381,38 +1425,38 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C14" s="1">
-        <v>45971</v>
-      </c>
-      <c r="D14" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" collapsed="1" x14ac:dyDescent="0.2">
-      <c r="C15" s="1"/>
-    </row>
-    <row r="16" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>44</v>
-      </c>
-      <c r="B16" t="s">
-        <v>5</v>
-      </c>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C14" s="1"/>
+    </row>
+    <row r="15" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="1">
+        <v>45986</v>
+      </c>
+      <c r="D15" t="s">
+        <v>95</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C16" s="1">
         <v>45981</v>
       </c>
       <c r="D16" t="s">
         <v>84</v>
       </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C17" s="1">
         <v>45971</v>
       </c>
@@ -1420,24 +1464,24 @@
         <v>36</v>
       </c>
     </row>
-    <row r="18" spans="1:8" collapsed="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C18" s="1"/>
     </row>
     <row r="19" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B19" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C19" s="1">
-        <v>45981</v>
+        <v>45986</v>
       </c>
       <c r="D19" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19">
         <v>1</v>
@@ -1445,183 +1489,167 @@
     </row>
     <row r="20" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C20" s="1">
+        <v>45981</v>
+      </c>
+      <c r="D20" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="C21" s="1">
         <v>45971</v>
       </c>
-      <c r="D20" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" collapsed="1" x14ac:dyDescent="0.2">
-      <c r="C21" s="1"/>
-    </row>
-    <row r="22" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+      <c r="D21" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="C22" s="1"/>
+    </row>
+    <row r="23" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" s="1">
+        <v>45982</v>
+      </c>
+      <c r="D23" t="s">
+        <v>89</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="C24" s="1">
+        <v>45981</v>
+      </c>
+      <c r="D24" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="C25" s="1">
+        <v>45971</v>
+      </c>
+      <c r="D25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="C26" s="1"/>
+    </row>
+    <row r="27" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>92</v>
+      </c>
+      <c r="B27" t="s">
+        <v>93</v>
+      </c>
+      <c r="C27" s="1">
+        <v>45986</v>
+      </c>
+      <c r="D27" t="s">
+        <v>94</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+      <c r="H27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="C28" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="C29" s="1"/>
+    </row>
+    <row r="30" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
         <v>46</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B30" t="s">
         <v>7</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C30" s="1">
         <v>45981</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D30" t="s">
         <v>85</v>
       </c>
-      <c r="G22">
-        <v>1</v>
-      </c>
-      <c r="H22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C23" s="1">
+      <c r="G30">
+        <v>1</v>
+      </c>
+      <c r="H30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="C31" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:8" collapsed="1" x14ac:dyDescent="0.2"/>
-    <row r="25" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
+    <row r="32" spans="1:8" collapsed="1" x14ac:dyDescent="0.2"/>
+    <row r="33" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
         <v>61</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B33" t="s">
         <v>8</v>
       </c>
-      <c r="C25" s="1">
-        <v>45972</v>
-      </c>
-      <c r="D25" t="s">
-        <v>36</v>
-      </c>
-      <c r="G25">
+      <c r="C33" s="1">
+        <v>45986</v>
+      </c>
+      <c r="D33" t="s">
+        <v>97</v>
+      </c>
+      <c r="G33">
         <v>0</v>
       </c>
-      <c r="H25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C26" s="1">
-        <v>45972</v>
-      </c>
-      <c r="D26" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" collapsed="1" x14ac:dyDescent="0.2">
-      <c r="C27" s="1"/>
-    </row>
-    <row r="28" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
+      <c r="H33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="C34" s="1">
+        <v>45972</v>
+      </c>
+      <c r="D34" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="C35" s="1">
+        <v>45972</v>
+      </c>
+      <c r="D35" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C36" s="1"/>
+    </row>
+    <row r="37" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
         <v>62</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B37" t="s">
         <v>9</v>
-      </c>
-      <c r="C28" s="1">
-        <v>45981</v>
-      </c>
-      <c r="D28" t="s">
-        <v>86</v>
-      </c>
-      <c r="G28">
-        <v>0</v>
-      </c>
-      <c r="H28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C29" s="1">
-        <v>45972</v>
-      </c>
-      <c r="D29" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" collapsed="1" x14ac:dyDescent="0.2">
-      <c r="C30" s="1"/>
-    </row>
-    <row r="31" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>63</v>
-      </c>
-      <c r="B31" t="s">
-        <v>10</v>
-      </c>
-      <c r="C31" s="1">
-        <v>45981</v>
-      </c>
-      <c r="D31" t="s">
-        <v>84</v>
-      </c>
-      <c r="G31">
-        <v>0</v>
-      </c>
-      <c r="H31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C32" s="1">
-        <v>45972</v>
-      </c>
-      <c r="D32" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" collapsed="1" x14ac:dyDescent="0.2">
-      <c r="C33" s="1"/>
-    </row>
-    <row r="34" spans="1:8" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>52</v>
-      </c>
-      <c r="B34" t="s">
-        <v>11</v>
-      </c>
-      <c r="C34" s="1">
-        <v>45972</v>
-      </c>
-      <c r="D34" t="s">
-        <v>36</v>
-      </c>
-      <c r="E34" s="1">
-        <v>45972</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="G34">
-        <v>1</v>
-      </c>
-      <c r="H34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C35" s="1">
-        <v>45972</v>
-      </c>
-      <c r="D35" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" collapsed="1" x14ac:dyDescent="0.2">
-      <c r="C36" s="1"/>
-    </row>
-    <row r="37" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>60</v>
-      </c>
-      <c r="B37" t="s">
-        <v>12</v>
       </c>
       <c r="C37" s="1">
         <v>45981</v>
       </c>
       <c r="D37" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G37">
         <v>0</v>
@@ -1630,7 +1658,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C38" s="1">
         <v>45972</v>
       </c>
@@ -1638,196 +1666,180 @@
         <v>36</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C39" s="1"/>
+    </row>
+    <row r="40" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>63</v>
+      </c>
+      <c r="B40" t="s">
+        <v>10</v>
+      </c>
+      <c r="C40" s="1">
+        <v>45986</v>
+      </c>
+      <c r="D40" t="s">
+        <v>98</v>
+      </c>
+      <c r="G40">
+        <v>1</v>
+      </c>
+      <c r="H40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="C41" s="1">
+        <v>45981</v>
+      </c>
+      <c r="D41" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="C42" s="1">
+        <v>45972</v>
+      </c>
+      <c r="D42" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="C43" s="1"/>
+    </row>
+    <row r="44" spans="1:8" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>52</v>
+      </c>
+      <c r="B44" t="s">
+        <v>11</v>
+      </c>
+      <c r="C44" s="1">
+        <v>45972</v>
+      </c>
+      <c r="D44" t="s">
+        <v>36</v>
+      </c>
+      <c r="E44" s="1">
+        <v>45972</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G44">
+        <v>1</v>
+      </c>
+      <c r="H44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="C45" s="1">
+        <v>45972</v>
+      </c>
+      <c r="D45" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="C46" s="1"/>
+    </row>
+    <row r="47" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>60</v>
+      </c>
+      <c r="B47" t="s">
+        <v>12</v>
+      </c>
+      <c r="C47" s="1">
+        <v>45986</v>
+      </c>
+      <c r="D47" t="s">
+        <v>99</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="C48" s="1">
+        <v>45981</v>
+      </c>
+      <c r="D48" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="C49" s="1">
+        <v>45972</v>
+      </c>
+      <c r="D49" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C50" s="1"/>
+    </row>
+    <row r="51" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
         <v>64</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B51" t="s">
         <v>13</v>
       </c>
-      <c r="C39" s="1">
-        <v>45972</v>
-      </c>
-      <c r="D39" t="s">
-        <v>36</v>
-      </c>
-      <c r="E39" s="1">
+      <c r="C51" s="1">
+        <v>45986</v>
+      </c>
+      <c r="D51" t="s">
+        <v>100</v>
+      </c>
+      <c r="E51" s="1"/>
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="17" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="C52" s="1">
+        <v>45972</v>
+      </c>
+      <c r="D52" t="s">
+        <v>36</v>
+      </c>
+      <c r="E52" s="1">
         <v>45978</v>
       </c>
-      <c r="F39" s="2" t="s">
+      <c r="F52" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="G39">
-        <v>1</v>
-      </c>
-      <c r="H39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C40" s="1"/>
-      <c r="E40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" collapsed="1" x14ac:dyDescent="0.2">
-      <c r="C41" s="1"/>
-    </row>
-    <row r="42" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>65</v>
-      </c>
-      <c r="B42" t="s">
-        <v>14</v>
-      </c>
-      <c r="C42" s="1">
-        <v>45972</v>
-      </c>
-      <c r="D42" t="s">
-        <v>36</v>
-      </c>
-      <c r="G42">
-        <v>0</v>
-      </c>
-      <c r="H42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C43" s="1">
-        <v>45972</v>
-      </c>
-      <c r="D43" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" collapsed="1" x14ac:dyDescent="0.2">
-      <c r="C44" s="1"/>
-    </row>
-    <row r="45" spans="1:8" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>66</v>
-      </c>
-      <c r="B45" t="s">
-        <v>15</v>
-      </c>
-      <c r="C45" s="1">
-        <v>45972</v>
-      </c>
-      <c r="D45" t="s">
-        <v>36</v>
-      </c>
-      <c r="E45" s="1">
-        <v>45973</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="G45">
-        <v>0</v>
-      </c>
-      <c r="H45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C46" s="1"/>
-      <c r="E46" s="1">
-        <v>45975</v>
-      </c>
-      <c r="F46" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" collapsed="1" x14ac:dyDescent="0.2">
-      <c r="C47" s="1"/>
-    </row>
-    <row r="48" spans="1:8" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>55</v>
-      </c>
-      <c r="B48" t="s">
-        <v>16</v>
-      </c>
-      <c r="C48" s="1">
-        <v>45972</v>
-      </c>
-      <c r="D48" t="s">
-        <v>36</v>
-      </c>
-      <c r="E48" s="1">
-        <v>45972</v>
-      </c>
-      <c r="F48" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="G48">
-        <v>1</v>
-      </c>
-      <c r="H48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C49" s="1"/>
-      <c r="E49" s="1">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" collapsed="1" x14ac:dyDescent="0.2">
-      <c r="C50" s="1"/>
-      <c r="E50" s="1"/>
-    </row>
-    <row r="51" spans="1:8" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>49</v>
-      </c>
-      <c r="B51" t="s">
-        <v>17</v>
-      </c>
-      <c r="C51" s="1">
-        <v>45972</v>
-      </c>
-      <c r="D51" t="s">
-        <v>36</v>
-      </c>
-      <c r="E51" s="1">
-        <v>45972</v>
-      </c>
-      <c r="F51" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="G51">
-        <v>1</v>
-      </c>
-      <c r="H51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C52" s="1"/>
-      <c r="E52">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" collapsed="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C53" s="1"/>
+      <c r="E53">
+        <v>1</v>
+      </c>
     </row>
     <row r="54" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B54" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C54" s="1">
-        <v>45981</v>
+        <v>45986</v>
       </c>
       <c r="D54" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="G54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H54">
         <v>1</v>
@@ -1841,345 +1853,523 @@
         <v>36</v>
       </c>
     </row>
-    <row r="56" spans="1:8" collapsed="1" x14ac:dyDescent="0.2">
-      <c r="C56" s="1"/>
-    </row>
-    <row r="57" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
+    <row r="56" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="C56" s="1">
+        <v>45972</v>
+      </c>
+      <c r="D56" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="C57" s="1"/>
+    </row>
+    <row r="58" spans="1:8" ht="17" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>66</v>
+      </c>
+      <c r="B58" t="s">
+        <v>15</v>
+      </c>
+      <c r="C58" s="1">
+        <v>45972</v>
+      </c>
+      <c r="D58" t="s">
+        <v>36</v>
+      </c>
+      <c r="E58" s="1">
+        <v>45986</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="G58">
+        <v>0</v>
+      </c>
+      <c r="H58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="17" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="C59" s="1"/>
+      <c r="E59" s="1">
+        <v>45973</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="17" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="C60" s="1"/>
+      <c r="E60" s="1">
+        <v>45975</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C61" s="1"/>
+    </row>
+    <row r="62" spans="1:8" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>55</v>
+      </c>
+      <c r="B62" t="s">
+        <v>16</v>
+      </c>
+      <c r="C62" s="1">
+        <v>45972</v>
+      </c>
+      <c r="D62" t="s">
+        <v>36</v>
+      </c>
+      <c r="E62" s="1">
+        <v>45972</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G62">
+        <v>1</v>
+      </c>
+      <c r="H62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="C63" s="1"/>
+      <c r="E63" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="C64" s="1"/>
+      <c r="E64" s="1"/>
+    </row>
+    <row r="65" spans="1:8" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>49</v>
+      </c>
+      <c r="B65" t="s">
+        <v>17</v>
+      </c>
+      <c r="C65" s="1">
+        <v>45972</v>
+      </c>
+      <c r="D65" t="s">
+        <v>36</v>
+      </c>
+      <c r="E65" s="1">
+        <v>45972</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G65">
+        <v>1</v>
+      </c>
+      <c r="H65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="C66" s="1"/>
+      <c r="E66">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="C67" s="1"/>
+    </row>
+    <row r="68" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>67</v>
+      </c>
+      <c r="B68" t="s">
+        <v>18</v>
+      </c>
+      <c r="C68" s="1">
+        <v>45986</v>
+      </c>
+      <c r="D68" t="s">
+        <v>102</v>
+      </c>
+      <c r="G68">
+        <v>0</v>
+      </c>
+      <c r="H68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="C69" s="1">
+        <v>45981</v>
+      </c>
+      <c r="D69" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="C70" s="1">
+        <v>45972</v>
+      </c>
+      <c r="D70" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C71" s="1"/>
+    </row>
+    <row r="72" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
         <v>43</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B72" t="s">
         <v>19</v>
       </c>
-      <c r="C57" s="1">
+      <c r="C72" s="1">
         <v>45981</v>
       </c>
-      <c r="D57" t="s">
+      <c r="D72" t="s">
         <v>84</v>
       </c>
-      <c r="G57">
-        <v>0</v>
-      </c>
-      <c r="H57">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C58" s="1">
+      <c r="G72">
+        <v>1</v>
+      </c>
+      <c r="H72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="C73" s="1">
         <v>45971</v>
       </c>
-      <c r="D58" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" collapsed="1" x14ac:dyDescent="0.2">
-      <c r="C59" s="1"/>
-    </row>
-    <row r="60" spans="1:8" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
+      <c r="D73" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="C74" s="1"/>
+    </row>
+    <row r="75" spans="1:8" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
         <v>59</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B75" t="s">
         <v>20</v>
       </c>
-      <c r="C60" s="1">
-        <v>45972</v>
-      </c>
-      <c r="D60" t="s">
-        <v>36</v>
-      </c>
-      <c r="E60" s="1">
-        <v>45972</v>
-      </c>
-      <c r="F60" s="2" t="s">
+      <c r="C75" s="1">
+        <v>45972</v>
+      </c>
+      <c r="D75" t="s">
+        <v>36</v>
+      </c>
+      <c r="E75" s="1">
+        <v>45972</v>
+      </c>
+      <c r="F75" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="G60">
-        <v>1</v>
-      </c>
-      <c r="H60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C61" s="1"/>
-      <c r="E61" s="1">
+      <c r="G75">
+        <v>1</v>
+      </c>
+      <c r="H75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="C76" s="1"/>
+      <c r="E76" s="1">
         <v>45975</v>
       </c>
-      <c r="F61" s="2" t="s">
+      <c r="F76" s="2" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C62" s="1"/>
-      <c r="E62" s="1">
+    <row r="77" spans="1:8" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="C77" s="1"/>
+      <c r="E77" s="1">
         <v>45978</v>
       </c>
-      <c r="F62" s="2" t="s">
+      <c r="F77" s="2" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="63" spans="1:8" collapsed="1" x14ac:dyDescent="0.2">
-      <c r="C63" s="1"/>
-    </row>
-    <row r="64" spans="1:8" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
+    <row r="78" spans="1:8" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="C78" s="1"/>
+    </row>
+    <row r="79" spans="1:8" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
         <v>68</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B79" t="s">
         <v>21</v>
       </c>
-      <c r="C64" s="1">
-        <v>45972</v>
-      </c>
-      <c r="D64" t="s">
-        <v>36</v>
-      </c>
-      <c r="E64" s="1">
+      <c r="C79" s="1">
+        <v>45972</v>
+      </c>
+      <c r="D79" t="s">
+        <v>36</v>
+      </c>
+      <c r="E79" s="1">
         <v>45980</v>
       </c>
-      <c r="F64" s="2" t="s">
+      <c r="F79" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="G64">
-        <v>1</v>
-      </c>
-      <c r="H64">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C65" s="1"/>
-      <c r="E65">
+      <c r="G79">
+        <v>1</v>
+      </c>
+      <c r="H79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="C80" s="1"/>
+      <c r="E80">
         <v>11</v>
       </c>
     </row>
-    <row r="66" spans="1:8" collapsed="1" x14ac:dyDescent="0.2">
-      <c r="C66" s="1"/>
-    </row>
-    <row r="67" spans="1:8" ht="34" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="3" t="s">
+    <row r="81" spans="1:8" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="C81" s="1"/>
+    </row>
+    <row r="82" spans="1:8" ht="34" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="B67" s="3" t="s">
+      <c r="B82" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C67" s="4">
-        <v>45972</v>
-      </c>
-      <c r="D67" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E67" s="4">
-        <v>45972</v>
-      </c>
-      <c r="F67" s="2" t="s">
+      <c r="C82" s="4">
+        <v>45972</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E82" s="4">
+        <v>45972</v>
+      </c>
+      <c r="F82" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="G67" s="3">
-        <v>1</v>
-      </c>
-      <c r="H67" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="3"/>
-      <c r="B68" s="3"/>
-      <c r="C68" s="4"/>
-      <c r="D68" s="3"/>
-      <c r="E68" s="4">
+      <c r="G82" s="3">
+        <v>1</v>
+      </c>
+      <c r="H82" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="3"/>
+      <c r="B83" s="3"/>
+      <c r="C83" s="4"/>
+      <c r="D83" s="3"/>
+      <c r="E83" s="4">
         <v>11</v>
       </c>
-      <c r="G68" s="3"/>
-    </row>
-    <row r="69" spans="1:8" collapsed="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="3"/>
-      <c r="B69" s="3"/>
-      <c r="C69" s="4"/>
-      <c r="D69" s="3"/>
-      <c r="E69" s="4"/>
-      <c r="G69" s="3"/>
-    </row>
-    <row r="70" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
+      <c r="G83" s="3"/>
+    </row>
+    <row r="84" spans="1:8" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="3"/>
+      <c r="B84" s="3"/>
+      <c r="C84" s="4"/>
+      <c r="D84" s="3"/>
+      <c r="E84" s="4"/>
+      <c r="G84" s="3"/>
+    </row>
+    <row r="85" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
         <v>70</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B85" t="s">
         <v>23</v>
       </c>
-      <c r="C70" s="1">
+      <c r="C85" s="1">
+        <v>45986</v>
+      </c>
+      <c r="D85" t="s">
+        <v>103</v>
+      </c>
+      <c r="G85">
+        <v>1</v>
+      </c>
+      <c r="H85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="C86" s="1">
         <v>45981</v>
       </c>
-      <c r="D70" t="s">
+      <c r="D86" t="s">
         <v>84</v>
       </c>
-      <c r="G70">
-        <v>0</v>
-      </c>
-      <c r="H70">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C71" s="1">
-        <v>45972</v>
-      </c>
-      <c r="D71" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" collapsed="1" x14ac:dyDescent="0.2">
-      <c r="C72" s="1"/>
-    </row>
-    <row r="73" spans="1:8" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A73" t="s">
+    </row>
+    <row r="87" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="C87" s="1">
+        <v>45972</v>
+      </c>
+      <c r="D87" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="C88" s="1"/>
+    </row>
+    <row r="89" spans="1:8" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
         <v>48</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B89" t="s">
         <v>24</v>
       </c>
-      <c r="C73" s="1">
-        <v>45972</v>
-      </c>
-      <c r="D73" t="s">
-        <v>36</v>
-      </c>
-      <c r="E73" s="1">
-        <v>45972</v>
-      </c>
-      <c r="F73" s="2" t="s">
+      <c r="C89" s="1">
+        <v>45986</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E89" s="1">
+        <v>45986</v>
+      </c>
+      <c r="F89" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="G89">
+        <v>1</v>
+      </c>
+      <c r="H89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="C90" s="1">
+        <v>45972</v>
+      </c>
+      <c r="D90" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="G73">
-        <v>0</v>
-      </c>
-      <c r="H73">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C74" s="1"/>
-      <c r="E74" s="1">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" collapsed="1" x14ac:dyDescent="0.2">
-      <c r="C75" s="1"/>
-      <c r="G75">
-        <v>0</v>
-      </c>
-      <c r="H75">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C76" s="1"/>
-    </row>
-    <row r="77" spans="1:8" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A77" t="s">
+    </row>
+    <row r="91" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="C91" s="1">
+        <v>45972</v>
+      </c>
+      <c r="D91" t="s">
+        <v>36</v>
+      </c>
+      <c r="E91" s="1"/>
+    </row>
+    <row r="92" spans="1:8" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="C92" s="1"/>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C93" s="1"/>
+    </row>
+    <row r="94" spans="1:8" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
         <v>71</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B94" t="s">
         <v>25</v>
       </c>
-      <c r="C77" s="1">
-        <v>45972</v>
-      </c>
-      <c r="D77" t="s">
-        <v>36</v>
-      </c>
-      <c r="E77" s="1">
+      <c r="C94" s="1">
+        <v>45972</v>
+      </c>
+      <c r="D94" t="s">
+        <v>36</v>
+      </c>
+      <c r="E94" s="1">
         <v>45973</v>
       </c>
-      <c r="F77" s="2" t="s">
+      <c r="F94" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="G77">
-        <v>1</v>
-      </c>
-      <c r="H77">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C78" s="1"/>
-      <c r="E78">
+      <c r="G94">
+        <v>1</v>
+      </c>
+      <c r="H94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="C95" s="1"/>
+      <c r="E95">
         <v>12</v>
       </c>
     </row>
-    <row r="79" spans="1:8" collapsed="1" x14ac:dyDescent="0.2">
-      <c r="C79" s="1"/>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C80" s="1"/>
-    </row>
-    <row r="81" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C81" s="1"/>
-    </row>
-    <row r="82" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C82" s="1"/>
-    </row>
-    <row r="83" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B83" t="s">
+    <row r="96" spans="1:8" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="C96" s="1"/>
+    </row>
+    <row r="97" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C97" s="1"/>
+    </row>
+    <row r="98" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C98" s="1"/>
+    </row>
+    <row r="99" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C99" s="1"/>
+    </row>
+    <row r="100" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B100" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="90" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B90" t="s">
+    <row r="107" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B107" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="91" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C91" s="1">
+    <row r="108" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C108" s="1">
         <v>45979</v>
       </c>
-      <c r="D91" t="s">
+      <c r="D108" t="s">
         <v>79</v>
       </c>
-      <c r="E91" t="s">
+      <c r="E108" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="92" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C92" s="1">
+    <row r="109" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C109" s="1">
         <v>45979</v>
       </c>
-      <c r="D92" t="s">
+      <c r="D109" t="s">
         <v>81</v>
       </c>
-      <c r="E92" t="s">
+      <c r="E109" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="93" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C93" s="1">
+    <row r="110" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C110" s="1">
         <v>45979</v>
       </c>
-      <c r="D93" t="s">
+      <c r="D110" t="s">
         <v>82</v>
       </c>
-      <c r="E93" t="s">
+      <c r="E110" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B97" t="s">
+    <row r="114" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B114" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="G99">
+    <row r="116" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="G116">
         <f>SUM(Table1[Member list complete?])</f>
-        <v>10</v>
-      </c>
-      <c r="H99">
+        <v>19</v>
+      </c>
+      <c r="H116">
         <f>SUM(Table1[Cntr])</f>
         <v>27</v>
       </c>
-      <c r="I99" s="5">
-        <f>G99/H99</f>
-        <v>0.37037037037037035</v>
+      <c r="I116" s="5">
+        <f>G116/H116</f>
+        <v>0.70370370370370372</v>
       </c>
     </row>
   </sheetData>

--- a/11-CollaborationList/2025-11-Refresh/00-RefreshLog.xlsx
+++ b/11-CollaborationList/2025-11-Refresh/00-RefreshLog.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11122"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://api.box.com/wopi/files/2050105903112/WOPIServiceId_TP_BOX_2/WOPIUserId_-/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kennethlong/Library/CloudStorage/Box-Box/CubMac-Box/KL-GIT/CCAP/02-LhARA/00-Collaboration-lists/11-CollaborationList/2025-11-Refresh/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="242" documentId="13_ncr:1_{046D63E1-063A-8D40-99B7-7ED47EA959D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{41A6755F-55F9-3743-AE25-A208CD55BAF9}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E07D31E0-53E8-3943-8520-B94C7E0D4BFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="31700" windowHeight="26900" xr2:uid="{9AD4C775-BB02-1F4A-9451-959360E31C15}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="107">
   <si>
     <t>ASU.xlsx</t>
   </si>
@@ -351,6 +351,9 @@
   </si>
   <si>
     <t>RA Oked.</t>
+  </si>
+  <si>
+    <t>Paul M is the representtive</t>
   </si>
 </sst>
 </file>
@@ -916,8 +919,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7E76B90B-1F1C-C048-9567-529E0CFCD19F}" name="Table1" displayName="Table1" ref="A1:H114" totalsRowShown="0">
-  <autoFilter ref="A1:H114" xr:uid="{7E76B90B-1F1C-C048-9567-529E0CFCD19F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7E76B90B-1F1C-C048-9567-529E0CFCD19F}" name="Table1" displayName="Table1" ref="A1:H115" totalsRowShown="0">
+  <autoFilter ref="A1:H115" xr:uid="{7E76B90B-1F1C-C048-9567-529E0CFCD19F}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{1B122CB6-63D6-7345-875C-B51685430DD3}" name="Institute"/>
     <tableColumn id="2" xr3:uid="{848FCA04-184B-824E-859C-4BA3DD5B6678}" name="Spreadsheet"/>
@@ -1249,10 +1252,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31D84185-4893-984F-81CD-365C50C740D1}">
-  <dimension ref="A1:I116"/>
+  <dimension ref="A1:I117"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A93" sqref="A93"/>
+      <selection activeCell="G64" sqref="G64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
@@ -1982,7 +1985,7 @@
     <row r="67" spans="1:8" collapsed="1" x14ac:dyDescent="0.2">
       <c r="C67" s="1"/>
     </row>
-    <row r="68" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>67</v>
       </c>
@@ -1993,315 +1996,320 @@
         <v>45986</v>
       </c>
       <c r="D68" t="s">
+        <v>106</v>
+      </c>
+      <c r="G68">
+        <v>1</v>
+      </c>
+      <c r="H68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="C69" s="1">
+        <v>45986</v>
+      </c>
+      <c r="D69" t="s">
         <v>102</v>
       </c>
-      <c r="G68">
-        <v>0</v>
-      </c>
-      <c r="H68">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C69" s="1">
+    </row>
+    <row r="70" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="C70" s="1">
         <v>45981</v>
       </c>
-      <c r="D69" t="s">
+      <c r="D70" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="70" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C70" s="1">
-        <v>45972</v>
-      </c>
-      <c r="D70" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C71" s="1"/>
-    </row>
-    <row r="72" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A72" t="s">
+    <row r="71" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="C71" s="1">
+        <v>45972</v>
+      </c>
+      <c r="D71" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="C72" s="1"/>
+    </row>
+    <row r="73" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
         <v>43</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B73" t="s">
         <v>19</v>
       </c>
-      <c r="C72" s="1">
+      <c r="C73" s="1">
         <v>45981</v>
       </c>
-      <c r="D72" t="s">
+      <c r="D73" t="s">
         <v>84</v>
       </c>
-      <c r="G72">
-        <v>1</v>
-      </c>
-      <c r="H72">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C73" s="1">
+      <c r="G73">
+        <v>1</v>
+      </c>
+      <c r="H73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="C74" s="1">
         <v>45971</v>
       </c>
-      <c r="D73" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" collapsed="1" x14ac:dyDescent="0.2">
-      <c r="C74" s="1"/>
-    </row>
-    <row r="75" spans="1:8" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A75" t="s">
+      <c r="D74" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="C75" s="1"/>
+    </row>
+    <row r="76" spans="1:8" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
         <v>59</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B76" t="s">
         <v>20</v>
       </c>
-      <c r="C75" s="1">
-        <v>45972</v>
-      </c>
-      <c r="D75" t="s">
-        <v>36</v>
-      </c>
-      <c r="E75" s="1">
-        <v>45972</v>
-      </c>
-      <c r="F75" s="2" t="s">
+      <c r="C76" s="1">
+        <v>45972</v>
+      </c>
+      <c r="D76" t="s">
+        <v>36</v>
+      </c>
+      <c r="E76" s="1">
+        <v>45972</v>
+      </c>
+      <c r="F76" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="G75">
-        <v>1</v>
-      </c>
-      <c r="H75">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C76" s="1"/>
-      <c r="E76" s="1">
-        <v>45975</v>
-      </c>
-      <c r="F76" s="2" t="s">
-        <v>76</v>
+      <c r="G76">
+        <v>1</v>
+      </c>
+      <c r="H76">
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:8" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C77" s="1"/>
       <c r="E77" s="1">
+        <v>45975</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="C78" s="1"/>
+      <c r="E78" s="1">
         <v>45978</v>
       </c>
-      <c r="F77" s="2" t="s">
+      <c r="F78" s="2" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="78" spans="1:8" collapsed="1" x14ac:dyDescent="0.2">
-      <c r="C78" s="1"/>
-    </row>
-    <row r="79" spans="1:8" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A79" t="s">
+    <row r="79" spans="1:8" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="C79" s="1"/>
+    </row>
+    <row r="80" spans="1:8" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
         <v>68</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B80" t="s">
         <v>21</v>
       </c>
-      <c r="C79" s="1">
-        <v>45972</v>
-      </c>
-      <c r="D79" t="s">
-        <v>36</v>
-      </c>
-      <c r="E79" s="1">
+      <c r="C80" s="1">
+        <v>45972</v>
+      </c>
+      <c r="D80" t="s">
+        <v>36</v>
+      </c>
+      <c r="E80" s="1">
         <v>45980</v>
       </c>
-      <c r="F79" s="2" t="s">
+      <c r="F80" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="G79">
-        <v>1</v>
-      </c>
-      <c r="H79">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C80" s="1"/>
-      <c r="E80">
+      <c r="G80">
+        <v>1</v>
+      </c>
+      <c r="H80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="C81" s="1"/>
+      <c r="E81">
         <v>11</v>
       </c>
     </row>
-    <row r="81" spans="1:8" collapsed="1" x14ac:dyDescent="0.2">
-      <c r="C81" s="1"/>
-    </row>
-    <row r="82" spans="1:8" ht="34" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="3" t="s">
+    <row r="82" spans="1:8" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="C82" s="1"/>
+    </row>
+    <row r="83" spans="1:8" ht="34" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="B82" s="3" t="s">
+      <c r="B83" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C82" s="4">
-        <v>45972</v>
-      </c>
-      <c r="D82" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E82" s="4">
-        <v>45972</v>
-      </c>
-      <c r="F82" s="2" t="s">
+      <c r="C83" s="4">
+        <v>45972</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E83" s="4">
+        <v>45972</v>
+      </c>
+      <c r="F83" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="G82" s="3">
-        <v>1</v>
-      </c>
-      <c r="H82" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="3"/>
-      <c r="B83" s="3"/>
-      <c r="C83" s="4"/>
-      <c r="D83" s="3"/>
-      <c r="E83" s="4">
-        <v>11</v>
-      </c>
-      <c r="G83" s="3"/>
-    </row>
-    <row r="84" spans="1:8" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="G83" s="3">
+        <v>1</v>
+      </c>
+      <c r="H83" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A84" s="3"/>
       <c r="B84" s="3"/>
       <c r="C84" s="4"/>
       <c r="D84" s="3"/>
-      <c r="E84" s="4"/>
+      <c r="E84" s="4">
+        <v>11</v>
+      </c>
       <c r="G84" s="3"/>
     </row>
-    <row r="85" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A85" t="s">
+    <row r="85" spans="1:8" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="3"/>
+      <c r="B85" s="3"/>
+      <c r="C85" s="4"/>
+      <c r="D85" s="3"/>
+      <c r="E85" s="4"/>
+      <c r="G85" s="3"/>
+    </row>
+    <row r="86" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
         <v>70</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B86" t="s">
         <v>23</v>
       </c>
-      <c r="C85" s="1">
+      <c r="C86" s="1">
         <v>45986</v>
       </c>
-      <c r="D85" t="s">
+      <c r="D86" t="s">
         <v>103</v>
       </c>
-      <c r="G85">
-        <v>1</v>
-      </c>
-      <c r="H85">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C86" s="1">
-        <v>45981</v>
-      </c>
-      <c r="D86" t="s">
-        <v>84</v>
+      <c r="G86">
+        <v>1</v>
+      </c>
+      <c r="H86">
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C87" s="1">
-        <v>45972</v>
+        <v>45981</v>
       </c>
       <c r="D87" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" collapsed="1" x14ac:dyDescent="0.2">
-      <c r="C88" s="1"/>
-    </row>
-    <row r="89" spans="1:8" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A89" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="C88" s="1">
+        <v>45972</v>
+      </c>
+      <c r="D88" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="C89" s="1"/>
+    </row>
+    <row r="90" spans="1:8" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
         <v>48</v>
       </c>
-      <c r="B89" t="s">
+      <c r="B90" t="s">
         <v>24</v>
       </c>
-      <c r="C89" s="1">
+      <c r="C90" s="1">
         <v>45986</v>
       </c>
-      <c r="D89" s="2" t="s">
+      <c r="D90" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="E89" s="1">
+      <c r="E90" s="1">
         <v>45986</v>
       </c>
-      <c r="F89" s="2" t="s">
+      <c r="F90" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="G89">
-        <v>1</v>
-      </c>
-      <c r="H89">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C90" s="1">
-        <v>45972</v>
-      </c>
-      <c r="D90" s="2" t="s">
+      <c r="G90">
+        <v>1</v>
+      </c>
+      <c r="H90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="C91" s="1">
+        <v>45972</v>
+      </c>
+      <c r="D91" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="91" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C91" s="1">
-        <v>45972</v>
-      </c>
-      <c r="D91" t="s">
-        <v>36</v>
-      </c>
-      <c r="E91" s="1"/>
-    </row>
-    <row r="92" spans="1:8" collapsed="1" x14ac:dyDescent="0.2">
-      <c r="C92" s="1"/>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="C92" s="1">
+        <v>45972</v>
+      </c>
+      <c r="D92" t="s">
+        <v>36</v>
+      </c>
+      <c r="E92" s="1"/>
+    </row>
+    <row r="93" spans="1:8" collapsed="1" x14ac:dyDescent="0.2">
       <c r="C93" s="1"/>
     </row>
-    <row r="94" spans="1:8" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A94" t="s">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C94" s="1"/>
+    </row>
+    <row r="95" spans="1:8" ht="17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
         <v>71</v>
       </c>
-      <c r="B94" t="s">
+      <c r="B95" t="s">
         <v>25</v>
       </c>
-      <c r="C94" s="1">
-        <v>45972</v>
-      </c>
-      <c r="D94" t="s">
-        <v>36</v>
-      </c>
-      <c r="E94" s="1">
+      <c r="C95" s="1">
+        <v>45972</v>
+      </c>
+      <c r="D95" t="s">
+        <v>36</v>
+      </c>
+      <c r="E95" s="1">
         <v>45973</v>
       </c>
-      <c r="F94" s="2" t="s">
+      <c r="F95" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="G94">
-        <v>1</v>
-      </c>
-      <c r="H94">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C95" s="1"/>
-      <c r="E95">
+      <c r="G95">
+        <v>1</v>
+      </c>
+      <c r="H95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="C96" s="1"/>
+      <c r="E96">
         <v>12</v>
       </c>
     </row>
-    <row r="96" spans="1:8" collapsed="1" x14ac:dyDescent="0.2">
-      <c r="C96" s="1"/>
-    </row>
-    <row r="97" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:5" collapsed="1" x14ac:dyDescent="0.2">
       <c r="C97" s="1"/>
     </row>
     <row r="98" spans="2:5" x14ac:dyDescent="0.2">
@@ -2311,24 +2319,16 @@
       <c r="C99" s="1"/>
     </row>
     <row r="100" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B100" t="s">
+      <c r="C100" s="1"/>
+    </row>
+    <row r="101" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B101" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="107" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B107" t="s">
+    <row r="108" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B108" t="s">
         <v>27</v>
-      </c>
-    </row>
-    <row r="108" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C108" s="1">
-        <v>45979</v>
-      </c>
-      <c r="D108" t="s">
-        <v>79</v>
-      </c>
-      <c r="E108" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="109" spans="2:5" x14ac:dyDescent="0.2">
@@ -2336,10 +2336,10 @@
         <v>45979</v>
       </c>
       <c r="D109" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E109" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
     </row>
     <row r="110" spans="2:5" x14ac:dyDescent="0.2">
@@ -2347,29 +2347,40 @@
         <v>45979</v>
       </c>
       <c r="D110" t="s">
+        <v>81</v>
+      </c>
+      <c r="E110" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="111" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C111" s="1">
+        <v>45979</v>
+      </c>
+      <c r="D111" t="s">
         <v>82</v>
       </c>
-      <c r="E110" t="s">
+      <c r="E111" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="114" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B114" t="s">
+    <row r="115" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B115" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="116" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="G116">
+    <row r="117" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="G117">
         <f>SUM(Table1[Member list complete?])</f>
-        <v>19</v>
-      </c>
-      <c r="H116">
+        <v>20</v>
+      </c>
+      <c r="H117">
         <f>SUM(Table1[Cntr])</f>
         <v>27</v>
       </c>
-      <c r="I116" s="5">
-        <f>G116/H116</f>
-        <v>0.70370370370370372</v>
+      <c r="I117" s="5">
+        <f>G117/H117</f>
+        <v>0.7407407407407407</v>
       </c>
     </row>
   </sheetData>
